--- a/DataDrivenFramework/src/test/resources/excel/Test.xlsx
+++ b/DataDrivenFramework/src/test/resources/excel/Test.xlsx
@@ -401,6 +401,7 @@
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
